--- a/BetterNames-v2.1-Weapons.xlsx
+++ b/BetterNames-v2.1-Weapons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons-BASE" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13429" uniqueCount="3680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13437" uniqueCount="3683">
   <si>
     <t>WEAP</t>
   </si>
@@ -11066,6 +11066,15 @@
   </si>
   <si>
     <t>Blade of Blinding Acrobatics</t>
+  </si>
+  <si>
+    <t>POT_GhostSword</t>
+  </si>
+  <si>
+    <t>Velothi Ghost Sword</t>
+  </si>
+  <si>
+    <t>TwoHanded Velothi Ghost Sword</t>
   </si>
 </sst>
 </file>
@@ -32801,9 +32810,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I1426"/>
+  <dimension ref="A1:I1427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A1405" workbookViewId="0">
+      <selection activeCell="F1427" sqref="F1427"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -59793,7 +59804,7 @@
         <v>0</v>
       </c>
       <c r="H1318" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1318,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" ref="H1318:H1349" si="13">IF(IFERROR(VLOOKUP(B1318,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
         <v>Old</v>
       </c>
     </row>
@@ -59819,7 +59830,7 @@
         <v>0</v>
       </c>
       <c r="H1319" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1319,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -59845,7 +59856,7 @@
         <v>0</v>
       </c>
       <c r="H1320" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1320,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -59871,7 +59882,7 @@
         <v>0</v>
       </c>
       <c r="H1321" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1321,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -59897,7 +59908,7 @@
         <v>0</v>
       </c>
       <c r="H1322" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1322,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -59925,7 +59936,7 @@
         <v>15</v>
       </c>
       <c r="H1323" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1323,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>New</v>
       </c>
     </row>
@@ -59953,7 +59964,7 @@
         <v>14</v>
       </c>
       <c r="H1324" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1324,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>New</v>
       </c>
     </row>
@@ -59981,7 +59992,7 @@
         <v>16</v>
       </c>
       <c r="H1325" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1325,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>New</v>
       </c>
     </row>
@@ -60009,7 +60020,7 @@
         <v>17</v>
       </c>
       <c r="H1326" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1326,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>New</v>
       </c>
     </row>
@@ -60037,7 +60048,7 @@
         <v>13</v>
       </c>
       <c r="H1327" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1327,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>New</v>
       </c>
     </row>
@@ -60065,7 +60076,7 @@
         <v>12</v>
       </c>
       <c r="H1328" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1328,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>New</v>
       </c>
     </row>
@@ -60093,7 +60104,7 @@
         <v>14</v>
       </c>
       <c r="H1329" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1329,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>New</v>
       </c>
     </row>
@@ -60121,7 +60132,7 @@
         <v>10</v>
       </c>
       <c r="H1330" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1330,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>New</v>
       </c>
     </row>
@@ -60149,7 +60160,7 @@
         <v>15</v>
       </c>
       <c r="H1331" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1331,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>New</v>
       </c>
     </row>
@@ -60177,7 +60188,7 @@
         <v>10</v>
       </c>
       <c r="H1332" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1332,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>New</v>
       </c>
     </row>
@@ -60205,7 +60216,7 @@
         <v>11</v>
       </c>
       <c r="H1333" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1333,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>New</v>
       </c>
     </row>
@@ -60233,7 +60244,7 @@
         <v>18</v>
       </c>
       <c r="H1334" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1334,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>New</v>
       </c>
     </row>
@@ -60259,7 +60270,7 @@
         <v>0</v>
       </c>
       <c r="H1335" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1335,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -60285,7 +60296,7 @@
         <v>0</v>
       </c>
       <c r="H1336" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1336,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -60311,7 +60322,7 @@
         <v>0</v>
       </c>
       <c r="H1337" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1337,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -60337,7 +60348,7 @@
         <v>0</v>
       </c>
       <c r="H1338" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1338,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -60363,7 +60374,7 @@
         <v>0</v>
       </c>
       <c r="H1339" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1339,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -60389,7 +60400,7 @@
         <v>0</v>
       </c>
       <c r="H1340" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1340,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -60415,7 +60426,7 @@
         <v>0</v>
       </c>
       <c r="H1341" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1341,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -60441,7 +60452,7 @@
         <v>0</v>
       </c>
       <c r="H1342" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1342,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -60467,7 +60478,7 @@
         <v>0</v>
       </c>
       <c r="H1343" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1343,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -60493,7 +60504,7 @@
         <v>0</v>
       </c>
       <c r="H1344" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1344,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -60519,7 +60530,7 @@
         <v>0</v>
       </c>
       <c r="H1345" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1345,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -60545,7 +60556,7 @@
         <v>0</v>
       </c>
       <c r="H1346" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1346,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -60571,7 +60582,7 @@
         <v>0</v>
       </c>
       <c r="H1347" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1347,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -60597,7 +60608,7 @@
         <v>0</v>
       </c>
       <c r="H1348" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1348,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -60623,7 +60634,7 @@
         <v>0</v>
       </c>
       <c r="H1349" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1349,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="13"/>
         <v>Old</v>
       </c>
     </row>
@@ -60649,7 +60660,7 @@
         <v>0</v>
       </c>
       <c r="H1350" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1350,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" ref="H1350:H1381" si="14">IF(IFERROR(VLOOKUP(B1350,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
         <v>Old</v>
       </c>
     </row>
@@ -60675,7 +60686,7 @@
         <v>0</v>
       </c>
       <c r="H1351" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1351,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -60701,7 +60712,7 @@
         <v>0</v>
       </c>
       <c r="H1352" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1352,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -60727,7 +60738,7 @@
         <v>0</v>
       </c>
       <c r="H1353" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1353,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -60753,7 +60764,7 @@
         <v>0</v>
       </c>
       <c r="H1354" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1354,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -60779,7 +60790,7 @@
         <v>0</v>
       </c>
       <c r="H1355" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1355,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -60805,7 +60816,7 @@
         <v>0</v>
       </c>
       <c r="H1356" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1356,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -60831,7 +60842,7 @@
         <v>0</v>
       </c>
       <c r="H1357" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1357,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -60857,7 +60868,7 @@
         <v>0</v>
       </c>
       <c r="H1358" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1358,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -60883,7 +60894,7 @@
         <v>0</v>
       </c>
       <c r="H1359" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1359,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -60909,7 +60920,7 @@
         <v>0</v>
       </c>
       <c r="H1360" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1360,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -60935,7 +60946,7 @@
         <v>0</v>
       </c>
       <c r="H1361" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1361,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -60961,7 +60972,7 @@
         <v>0</v>
       </c>
       <c r="H1362" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1362,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -60987,7 +60998,7 @@
         <v>0</v>
       </c>
       <c r="H1363" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1363,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61013,7 +61024,7 @@
         <v>0</v>
       </c>
       <c r="H1364" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1364,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61039,7 +61050,7 @@
         <v>0</v>
       </c>
       <c r="H1365" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1365,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61065,7 +61076,7 @@
         <v>0</v>
       </c>
       <c r="H1366" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1366,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61091,7 +61102,7 @@
         <v>0</v>
       </c>
       <c r="H1367" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1367,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61117,7 +61128,7 @@
         <v>0</v>
       </c>
       <c r="H1368" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1368,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61143,7 +61154,7 @@
         <v>0</v>
       </c>
       <c r="H1369" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1369,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61169,7 +61180,7 @@
         <v>0</v>
       </c>
       <c r="H1370" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1370,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61195,7 +61206,7 @@
         <v>0</v>
       </c>
       <c r="H1371" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1371,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61221,7 +61232,7 @@
         <v>0</v>
       </c>
       <c r="H1372" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1372,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61243,11 +61254,11 @@
       </c>
       <c r="F1373" s="1"/>
       <c r="G1373" s="1">
-        <f t="shared" ref="G1373:G1426" si="13">LEN(F1373)</f>
+        <f t="shared" ref="G1373:G1427" si="15">LEN(F1373)</f>
         <v>0</v>
       </c>
       <c r="H1373" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1373,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61269,11 +61280,11 @@
       </c>
       <c r="F1374" s="1"/>
       <c r="G1374" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H1374" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1374,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61295,11 +61306,11 @@
       </c>
       <c r="F1375" s="1"/>
       <c r="G1375" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H1375" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1375,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61321,11 +61332,11 @@
       </c>
       <c r="F1376" s="1"/>
       <c r="G1376" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H1376" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1376,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61347,11 +61358,11 @@
       </c>
       <c r="F1377" s="1"/>
       <c r="G1377" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H1377" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1377,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61373,11 +61384,11 @@
       </c>
       <c r="F1378" s="1"/>
       <c r="G1378" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H1378" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1378,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61399,11 +61410,11 @@
       </c>
       <c r="F1379" s="1"/>
       <c r="G1379" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H1379" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1379,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61425,11 +61436,11 @@
       </c>
       <c r="F1380" s="1"/>
       <c r="G1380" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H1380" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1380,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61451,11 +61462,11 @@
       </c>
       <c r="F1381" s="1"/>
       <c r="G1381" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H1381" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1381,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="14"/>
         <v>Old</v>
       </c>
     </row>
@@ -61477,11 +61488,11 @@
       </c>
       <c r="F1382" s="1"/>
       <c r="G1382" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H1382" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1382,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" ref="H1382:H1416" si="16">IF(IFERROR(VLOOKUP(B1382,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
         <v>Old</v>
       </c>
     </row>
@@ -61503,11 +61514,11 @@
       </c>
       <c r="F1383" s="1"/>
       <c r="G1383" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H1383" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1383,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>Old</v>
       </c>
     </row>
@@ -61531,11 +61542,11 @@
         <v>3568</v>
       </c>
       <c r="G1384">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="H1384" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1384,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61559,11 +61570,11 @@
         <v>3569</v>
       </c>
       <c r="G1385">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="H1385" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1385,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61587,11 +61598,11 @@
         <v>3570</v>
       </c>
       <c r="G1386">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="H1386" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1386,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61615,11 +61626,11 @@
         <v>3571</v>
       </c>
       <c r="G1387">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="H1387" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1387,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61643,11 +61654,11 @@
         <v>3572</v>
       </c>
       <c r="G1388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="H1388" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1388,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61671,11 +61682,11 @@
         <v>3573</v>
       </c>
       <c r="G1389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="H1389" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1389,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61699,11 +61710,11 @@
         <v>3574</v>
       </c>
       <c r="G1390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="H1390" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1390,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61724,11 +61735,11 @@
         <v>1000</v>
       </c>
       <c r="G1391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H1391" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1391,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61752,11 +61763,11 @@
         <v>3623</v>
       </c>
       <c r="G1392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="H1392" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1392,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61777,11 +61788,11 @@
         <v>10</v>
       </c>
       <c r="G1393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H1393" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1393,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61805,11 +61816,11 @@
         <v>3624</v>
       </c>
       <c r="G1394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="H1394" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1394,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61830,11 +61841,11 @@
         <v>4500</v>
       </c>
       <c r="G1395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H1395" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1395,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61858,11 +61869,11 @@
         <v>3148</v>
       </c>
       <c r="G1396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="H1396" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1396,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61886,11 +61897,11 @@
         <v>2788</v>
       </c>
       <c r="G1397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="H1397" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1397,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61914,11 +61925,11 @@
         <v>3626</v>
       </c>
       <c r="G1398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="H1398" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1398,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61942,11 +61953,11 @@
         <v>3627</v>
       </c>
       <c r="G1399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="H1399" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1399,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61970,11 +61981,11 @@
         <v>3628</v>
       </c>
       <c r="G1400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="H1400" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1400,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -61998,11 +62009,11 @@
         <v>3630</v>
       </c>
       <c r="G1401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="H1401" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1401,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62026,11 +62037,11 @@
         <v>3631</v>
       </c>
       <c r="G1402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="H1402" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1402,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62054,11 +62065,11 @@
         <v>3632</v>
       </c>
       <c r="G1403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="H1403" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1403,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62082,11 +62093,11 @@
         <v>3629</v>
       </c>
       <c r="G1404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="H1404" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1404,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62110,11 +62121,11 @@
         <v>3633</v>
       </c>
       <c r="G1405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="H1405" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1405,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62138,11 +62149,11 @@
         <v>3634</v>
       </c>
       <c r="G1406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="H1406" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1406,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62166,11 +62177,11 @@
         <v>3625</v>
       </c>
       <c r="G1407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="H1407" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1407,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62194,11 +62205,11 @@
         <v>3635</v>
       </c>
       <c r="G1408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="H1408" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1408,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62222,11 +62233,11 @@
         <v>3636</v>
       </c>
       <c r="G1409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="H1409" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1409,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62250,11 +62261,11 @@
         <v>3637</v>
       </c>
       <c r="G1410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="H1410" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1410,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62278,11 +62289,11 @@
         <v>3637</v>
       </c>
       <c r="G1411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="H1411" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1411,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62306,11 +62317,11 @@
         <v>3638</v>
       </c>
       <c r="G1412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="H1412" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1412,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62334,11 +62345,11 @@
         <v>3639</v>
       </c>
       <c r="G1413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="H1413" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1413,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62362,11 +62373,11 @@
         <v>3633</v>
       </c>
       <c r="G1414">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="H1414" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1414,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62390,11 +62401,11 @@
         <v>3640</v>
       </c>
       <c r="G1415">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="H1415" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1415,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62418,11 +62429,11 @@
         <v>3650</v>
       </c>
       <c r="G1416">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="H1416" s="1" t="str">
-        <f>IF(IFERROR(VLOOKUP(B1416,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" si="16"/>
         <v>New</v>
       </c>
     </row>
@@ -62446,11 +62457,11 @@
         <v>3653</v>
       </c>
       <c r="G1417">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="H1417" s="1" t="str">
-        <f t="shared" ref="H1417:H1426" si="14">IF(IFERROR(VLOOKUP(B1417,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" ref="H1417:H1427" si="17">IF(IFERROR(VLOOKUP(B1417,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
         <v>New</v>
       </c>
     </row>
@@ -62474,11 +62485,11 @@
         <v>3656</v>
       </c>
       <c r="G1418">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="H1418" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>New</v>
       </c>
     </row>
@@ -62502,11 +62513,11 @@
         <v>3678</v>
       </c>
       <c r="G1419">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="H1419" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>New</v>
       </c>
     </row>
@@ -62530,11 +62541,11 @@
         <v>3677</v>
       </c>
       <c r="G1420">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="H1420" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>New</v>
       </c>
     </row>
@@ -62558,11 +62569,11 @@
         <v>3673</v>
       </c>
       <c r="G1421">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="H1421" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>New</v>
       </c>
     </row>
@@ -62586,11 +62597,11 @@
         <v>3674</v>
       </c>
       <c r="G1422">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="H1422" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>New</v>
       </c>
     </row>
@@ -62614,11 +62625,11 @@
         <v>3679</v>
       </c>
       <c r="G1423">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="H1423" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>New</v>
       </c>
     </row>
@@ -62642,11 +62653,11 @@
         <v>3675</v>
       </c>
       <c r="G1424">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="H1424" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>New</v>
       </c>
     </row>
@@ -62667,11 +62678,11 @@
         <v>0</v>
       </c>
       <c r="G1425">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H1425" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>New</v>
       </c>
     </row>
@@ -62695,11 +62706,39 @@
         <v>3676</v>
       </c>
       <c r="G1426">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="H1426" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1427" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>3680</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>3681</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1427">
+        <v>0</v>
+      </c>
+      <c r="F1427" t="s">
+        <v>3682</v>
+      </c>
+      <c r="G1427">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="H1427" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>New</v>
       </c>
     </row>
@@ -62718,9 +62757,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1256"/>
+  <dimension ref="A1:D1257"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1226" workbookViewId="0">
+      <selection activeCell="D1257" sqref="D1257"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -80976,7 +81017,7 @@
         <v>2844</v>
       </c>
       <c r="D1217" t="str">
-        <f t="shared" ref="D1217:D1256" si="19">"{ID="&amp;""""&amp;A1217&amp;""""&amp;", name="&amp;""""&amp;C1217&amp;""""&amp;"},"</f>
+        <f t="shared" ref="D1217:D1257" si="19">"{ID="&amp;""""&amp;A1217&amp;""""&amp;", name="&amp;""""&amp;C1217&amp;""""&amp;"},"</f>
         <v>{ID="orcish trapper bolt", name="Bolt Uftum Trapper"},</v>
       </c>
     </row>
@@ -81563,6 +81604,21 @@
       <c r="D1256" t="str">
         <f t="shared" si="19"/>
         <v>{ID="_DEG_AF08_WeapSkeGua02", name="Sword Sarethi Ancestral Blade"},</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1257" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D1257" t="str">
+        <f t="shared" si="19"/>
+        <v>{ID="POT_GhostSword", name="TwoHanded Velothi Ghost Sword"},</v>
       </c>
     </row>
   </sheetData>

--- a/BetterNames-v2.1-Weapons.xlsx
+++ b/BetterNames-v2.1-Weapons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons-BASE" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13437" uniqueCount="3683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13477" uniqueCount="3697">
   <si>
     <t>WEAP</t>
   </si>
@@ -11075,6 +11075,48 @@
   </si>
   <si>
     <t>TwoHanded Velothi Ghost Sword</t>
+  </si>
+  <si>
+    <t>ABtv_w_MoonReiver</t>
+  </si>
+  <si>
+    <t>ABtv_w_TelvanniSpear</t>
+  </si>
+  <si>
+    <t>Verminous Spear</t>
+  </si>
+  <si>
+    <t>ABtv_w_AcidSpear</t>
+  </si>
+  <si>
+    <t>Acid Etched Chitin Spear</t>
+  </si>
+  <si>
+    <t>ABtv_w_VolatileFlameArrow</t>
+  </si>
+  <si>
+    <t>Volatile Arrow of Flame</t>
+  </si>
+  <si>
+    <t>ABtv_w_BlackSword</t>
+  </si>
+  <si>
+    <t>Blade of Eminent Ember</t>
+  </si>
+  <si>
+    <t>TwoHanded Sword of Moon Reiver</t>
+  </si>
+  <si>
+    <t>Spear Verminous</t>
+  </si>
+  <si>
+    <t>Spear Chitin Acid Etched</t>
+  </si>
+  <si>
+    <t>Arrow Volatile of Flame</t>
+  </si>
+  <si>
+    <t>Sword Blade of Eminent Ember</t>
   </si>
 </sst>
 </file>
@@ -32810,10 +32852,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I1427"/>
+  <dimension ref="A1:I1432"/>
   <sheetViews>
-    <sheetView topLeftCell="A1405" workbookViewId="0">
-      <selection activeCell="F1427" sqref="F1427"/>
+    <sheetView tabSelected="1" topLeftCell="A1405" workbookViewId="0">
+      <selection activeCell="B1430" sqref="B1430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32823,7 +32865,7 @@
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -61254,7 +61296,7 @@
       </c>
       <c r="F1373" s="1"/>
       <c r="G1373" s="1">
-        <f t="shared" ref="G1373:G1427" si="15">LEN(F1373)</f>
+        <f t="shared" ref="G1373:G1432" si="15">LEN(F1373)</f>
         <v>0</v>
       </c>
       <c r="H1373" s="1" t="str">
@@ -62461,7 +62503,7 @@
         <v>19</v>
       </c>
       <c r="H1417" s="1" t="str">
-        <f t="shared" ref="H1417:H1427" si="17">IF(IFERROR(VLOOKUP(B1417,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" ref="H1417:H1432" si="17">IF(IFERROR(VLOOKUP(B1417,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
         <v>New</v>
       </c>
     </row>
@@ -62738,6 +62780,131 @@
         <v>29</v>
       </c>
       <c r="H1427" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1428" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>3683</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1428" t="s">
+        <v>3692</v>
+      </c>
+      <c r="G1428">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="H1428" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1429" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>3684</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>3685</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1429" t="s">
+        <v>3693</v>
+      </c>
+      <c r="G1429">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="H1429" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1430" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>3686</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>3687</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1430" t="s">
+        <v>3694</v>
+      </c>
+      <c r="G1430">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="H1430" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1431" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>3688</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>3689</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1431" t="s">
+        <v>3695</v>
+      </c>
+      <c r="G1431">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="H1431" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1432" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>3690</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1432" t="s">
+        <v>3696</v>
+      </c>
+      <c r="G1432">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="H1432" s="1" t="str">
         <f t="shared" si="17"/>
         <v>New</v>
       </c>
@@ -62757,10 +62924,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1257"/>
+  <dimension ref="A1:D1262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1226" workbookViewId="0">
-      <selection activeCell="D1257" sqref="D1257"/>
+    <sheetView topLeftCell="A1234" workbookViewId="0">
+      <selection activeCell="B1263" sqref="B1263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81017,7 +81184,7 @@
         <v>2844</v>
       </c>
       <c r="D1217" t="str">
-        <f t="shared" ref="D1217:D1257" si="19">"{ID="&amp;""""&amp;A1217&amp;""""&amp;", name="&amp;""""&amp;C1217&amp;""""&amp;"},"</f>
+        <f t="shared" ref="D1217:D1262" si="19">"{ID="&amp;""""&amp;A1217&amp;""""&amp;", name="&amp;""""&amp;C1217&amp;""""&amp;"},"</f>
         <v>{ID="orcish trapper bolt", name="Bolt Uftum Trapper"},</v>
       </c>
     </row>
@@ -81619,6 +81786,81 @@
       <c r="D1257" t="str">
         <f t="shared" si="19"/>
         <v>{ID="POT_GhostSword", name="TwoHanded Velothi Ghost Sword"},</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1258" t="s">
+        <v>3683</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D1258" t="str">
+        <f t="shared" si="19"/>
+        <v>{ID="ABtv_w_MoonReiver", name="TwoHanded Sword of Moon Reiver"},</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1259" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>3685</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D1259" t="str">
+        <f t="shared" si="19"/>
+        <v>{ID="ABtv_w_TelvanniSpear", name="Spear Verminous"},</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>3694</v>
+      </c>
+      <c r="D1260" t="str">
+        <f t="shared" si="19"/>
+        <v>{ID="ABtv_w_AcidSpear", name="Spear Chitin Acid Etched"},</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>3695</v>
+      </c>
+      <c r="D1261" t="str">
+        <f t="shared" si="19"/>
+        <v>{ID="ABtv_w_VolatileFlameArrow", name="Arrow Volatile of Flame"},</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1262" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>3691</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>3696</v>
+      </c>
+      <c r="D1262" t="str">
+        <f t="shared" si="19"/>
+        <v>{ID="ABtv_w_BlackSword", name="Sword Blade of Eminent Ember"},</v>
       </c>
     </row>
   </sheetData>

--- a/BetterNames-v2.1-Weapons.xlsx
+++ b/BetterNames-v2.1-Weapons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons-BASE" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13477" uniqueCount="3697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13485" uniqueCount="3700">
   <si>
     <t>WEAP</t>
   </si>
@@ -11117,6 +11117,15 @@
   </si>
   <si>
     <t>Sword Blade of Eminent Ember</t>
+  </si>
+  <si>
+    <t>ABtm_w_GoldStClaymore</t>
+  </si>
+  <si>
+    <t>Mindcleaver</t>
+  </si>
+  <si>
+    <t>Claymore Mindcleaver</t>
   </si>
 </sst>
 </file>
@@ -32852,10 +32861,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I1432"/>
+  <dimension ref="A1:I1433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1405" workbookViewId="0">
-      <selection activeCell="B1430" sqref="B1430"/>
+    <sheetView topLeftCell="A1405" workbookViewId="0">
+      <selection activeCell="F1433" sqref="F1433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61296,7 +61305,7 @@
       </c>
       <c r="F1373" s="1"/>
       <c r="G1373" s="1">
-        <f t="shared" ref="G1373:G1432" si="15">LEN(F1373)</f>
+        <f t="shared" ref="G1373:G1433" si="15">LEN(F1373)</f>
         <v>0</v>
       </c>
       <c r="H1373" s="1" t="str">
@@ -62503,7 +62512,7 @@
         <v>19</v>
       </c>
       <c r="H1417" s="1" t="str">
-        <f t="shared" ref="H1417:H1432" si="17">IF(IFERROR(VLOOKUP(B1417,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
+        <f t="shared" ref="H1417:H1433" si="17">IF(IFERROR(VLOOKUP(B1417,$B$1:$F$1317,5,FALSE),1)=1,"New","Old")</f>
         <v>New</v>
       </c>
     </row>
@@ -62797,6 +62806,9 @@
       <c r="D1428" t="s">
         <v>30</v>
       </c>
+      <c r="E1428">
+        <v>0</v>
+      </c>
       <c r="F1428" t="s">
         <v>3692</v>
       </c>
@@ -62822,6 +62834,9 @@
       <c r="D1429" t="s">
         <v>19</v>
       </c>
+      <c r="E1429">
+        <v>0</v>
+      </c>
       <c r="F1429" t="s">
         <v>3693</v>
       </c>
@@ -62847,6 +62862,9 @@
       <c r="D1430" t="s">
         <v>19</v>
       </c>
+      <c r="E1430">
+        <v>0</v>
+      </c>
       <c r="F1430" t="s">
         <v>3694</v>
       </c>
@@ -62872,6 +62890,9 @@
       <c r="D1431" t="s">
         <v>1</v>
       </c>
+      <c r="E1431">
+        <v>0</v>
+      </c>
       <c r="F1431" t="s">
         <v>3695</v>
       </c>
@@ -62897,6 +62918,9 @@
       <c r="D1432" t="s">
         <v>12</v>
       </c>
+      <c r="E1432">
+        <v>0</v>
+      </c>
       <c r="F1432" t="s">
         <v>3696</v>
       </c>
@@ -62905,6 +62929,34 @@
         <v>28</v>
       </c>
       <c r="H1432" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>New</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1433" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>3697</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>3698</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1433">
+        <v>0</v>
+      </c>
+      <c r="F1433" t="s">
+        <v>3699</v>
+      </c>
+      <c r="G1433">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="H1433" s="1" t="str">
         <f t="shared" si="17"/>
         <v>New</v>
       </c>
@@ -62924,10 +62976,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1262"/>
+  <dimension ref="A1:D1263"/>
   <sheetViews>
-    <sheetView topLeftCell="A1234" workbookViewId="0">
-      <selection activeCell="B1263" sqref="B1263"/>
+    <sheetView tabSelected="1" topLeftCell="A1234" workbookViewId="0">
+      <selection activeCell="D1263" sqref="D1263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81184,7 +81236,7 @@
         <v>2844</v>
       </c>
       <c r="D1217" t="str">
-        <f t="shared" ref="D1217:D1262" si="19">"{ID="&amp;""""&amp;A1217&amp;""""&amp;", name="&amp;""""&amp;C1217&amp;""""&amp;"},"</f>
+        <f t="shared" ref="D1217:D1263" si="19">"{ID="&amp;""""&amp;A1217&amp;""""&amp;", name="&amp;""""&amp;C1217&amp;""""&amp;"},"</f>
         <v>{ID="orcish trapper bolt", name="Bolt Uftum Trapper"},</v>
       </c>
     </row>
@@ -81861,6 +81913,21 @@
       <c r="D1262" t="str">
         <f t="shared" si="19"/>
         <v>{ID="ABtv_w_BlackSword", name="Sword Blade of Eminent Ember"},</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>3698</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>3699</v>
+      </c>
+      <c r="D1263" t="str">
+        <f t="shared" si="19"/>
+        <v>{ID="ABtm_w_GoldStClaymore", name="Claymore Mindcleaver"},</v>
       </c>
     </row>
   </sheetData>
